--- a/Running projects/Lama Retails - Dolmen Mall Clifton Karachi/BOQ - LAMA Outlet - Contractor Copy.xlsx
+++ b/Running projects/Lama Retails - Dolmen Mall Clifton Karachi/BOQ - LAMA Outlet - Contractor Copy.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0297183D-838F-4804-9687-ADC4E22A7CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A3FEDD-CA26-4A79-B692-D39056B86FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="763" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="35" r:id="rId1"/>
     <sheet name="HVAC" sheetId="33" r:id="rId2"/>
     <sheet name="FF" sheetId="38" r:id="rId3"/>
+    <sheet name="FF (rev)" sheetId="39" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">FF!$A$1:$J$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'FF (rev)'!$A$1:$J$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">HVAC!$A$1:$J$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$16</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">FF!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'FF (rev)'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Summary!$4:$4</definedName>
   </definedNames>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>UNIT</t>
   </si>
@@ -512,6 +515,40 @@
   <si>
     <t>Quick Response Pendent Type</t>
   </si>
+  <si>
+    <t>Supply , Installation, Testing and commissioning of below mentioned fire fighting equipment UL/FM standards as indicated on the drawings, as per specifications, Equipment schedule and Engineers Approval including the cost of excavation, backfill, cutting, repairing, Fittings  as required to make the system operational.</t>
+  </si>
+  <si>
+    <t>SECTION - A
+FIRE PIPING</t>
+  </si>
+  <si>
+    <t>Supply &amp; installation of  seamless black  steel  SCH. 40 pipe as per ASTM A53 grade B by Lontrin, KSPM etc. with Heavy  Duty Welded fittings, Galvanized Supports and hangers, supports, painting and coding fire protection system of following sizes.</t>
+  </si>
+  <si>
+    <t>Dia 1"</t>
+  </si>
+  <si>
+    <t>Dia 1.5"</t>
+  </si>
+  <si>
+    <t>SECTION - B
+FIRE SPRINKLERS</t>
+  </si>
+  <si>
+    <t>Quick Response Concealed Type Sprinkler with Base Plate</t>
+  </si>
+  <si>
+    <t>SECTION - C
+FIRE EXTINGUISHERS</t>
+  </si>
+  <si>
+    <t>Modification Work</t>
+  </si>
+  <si>
+    <t>Supply &amp; Installation of Drain and Test Assembly of 1" to the nearest Drain Point as designated by DMC.
+Plugging of all additional Fire Sprinkler Points that will not be utilized.</t>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +559,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0;\-0;;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +663,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -854,7 +897,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1165,22 +1208,103 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1189,41 +1313,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1245,92 +1345,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1338,23 +1399,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1912,7 +2006,7 @@
   </sheetPr>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1961,37 +2055,37 @@
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:17" s="102" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="151" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="153" t="s">
+      <c r="E4" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153" t="s">
+      <c r="G4" s="131"/>
+      <c r="H4" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="149" t="s">
+      <c r="I4" s="131"/>
+      <c r="J4" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="102" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="150"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="152"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
@@ -2004,42 +2098,42 @@
       <c r="I5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="149"/>
+      <c r="J5" s="127"/>
     </row>
     <row r="6" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135"/>
-      <c r="B6" s="137" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
     </row>
     <row r="8" spans="1:17" s="31" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51">
         <v>1</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="144"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="34"/>
@@ -2050,10 +2144,10 @@
     </row>
     <row r="9" spans="1:17" s="31" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="161"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="85"/>
       <c r="E9" s="86"/>
       <c r="F9" s="29"/>
@@ -2100,10 +2194,10 @@
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="126"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="89"/>
       <c r="E11" s="90"/>
       <c r="F11" s="4"/>
@@ -2142,10 +2236,10 @@
       <c r="A13" s="51">
         <v>2</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
       <c r="F13" s="34"/>
@@ -2156,10 +2250,10 @@
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="161"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="85"/>
       <c r="E14" s="86"/>
       <c r="F14" s="42"/>
@@ -2214,10 +2308,10 @@
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="89"/>
       <c r="E16" s="90"/>
       <c r="F16" s="42"/>
@@ -2274,10 +2368,10 @@
       <c r="A18" s="51">
         <v>3</v>
       </c>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="128"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
       <c r="F18" s="42"/>
@@ -2297,10 +2391,10 @@
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="132"/>
+      <c r="C19" s="149"/>
       <c r="D19" s="85"/>
       <c r="E19" s="86"/>
       <c r="F19" s="42"/>
@@ -2355,10 +2449,10 @@
     </row>
     <row r="21" spans="1:17" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="151"/>
       <c r="D21" s="94"/>
       <c r="E21" s="95"/>
       <c r="F21" s="42"/>
@@ -2415,10 +2509,10 @@
       <c r="A23" s="74">
         <v>4</v>
       </c>
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="128"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="96"/>
       <c r="E23" s="96"/>
       <c r="F23" s="42"/>
@@ -2445,10 +2539,10 @@
     </row>
     <row r="24" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="124"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="87">
         <v>1</v>
       </c>
@@ -2506,10 +2600,10 @@
       <c r="A26" s="74">
         <v>5</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="128"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="96"/>
       <c r="E26" s="96"/>
       <c r="F26" s="42"/>
@@ -2536,10 +2630,10 @@
     </row>
     <row r="27" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="130"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="87">
         <v>1</v>
       </c>
@@ -2567,10 +2661,10 @@
     </row>
     <row r="28" spans="1:17" ht="26.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="118"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="92"/>
       <c r="E28" s="93"/>
       <c r="F28" s="42"/>
@@ -2597,10 +2691,10 @@
     </row>
     <row r="29" spans="1:17" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="116"/>
+      <c r="C29" s="141"/>
       <c r="D29" s="97"/>
       <c r="E29" s="88"/>
       <c r="F29" s="42"/>
@@ -2619,13 +2713,13 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="135"/>
-      <c r="B30" s="137" t="s">
+      <c r="A30" s="136"/>
+      <c r="B30" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="138"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42">
         <f t="shared" si="0"/>
@@ -2642,11 +2736,11 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="136"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42">
         <f t="shared" si="0"/>
@@ -2673,10 +2767,10 @@
       <c r="A32" s="51">
         <v>6</v>
       </c>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="144"/>
+      <c r="C32" s="110"/>
       <c r="D32" s="84"/>
       <c r="E32" s="84"/>
       <c r="F32" s="42"/>
@@ -2696,10 +2790,10 @@
     </row>
     <row r="33" spans="1:17" s="31" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
-      <c r="B33" s="160" t="s">
+      <c r="B33" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="161"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="85"/>
       <c r="E33" s="86"/>
       <c r="F33" s="42"/>
@@ -2742,10 +2836,10 @@
       <c r="A35" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="146"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="98"/>
       <c r="E35" s="96"/>
       <c r="F35" s="42"/>
@@ -2823,10 +2917,10 @@
       <c r="A38" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="146"/>
+      <c r="C38" s="120"/>
       <c r="D38" s="98"/>
       <c r="E38" s="96"/>
       <c r="F38" s="42"/>
@@ -2881,10 +2975,10 @@
     </row>
     <row r="40" spans="1:17" ht="26.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
-      <c r="B40" s="147" t="s">
+      <c r="B40" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="148"/>
+      <c r="C40" s="139"/>
       <c r="D40" s="92"/>
       <c r="E40" s="93"/>
       <c r="F40" s="42"/>
@@ -2911,10 +3005,10 @@
     </row>
     <row r="41" spans="1:17" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="116"/>
+      <c r="C41" s="141"/>
       <c r="D41" s="97"/>
       <c r="E41" s="88"/>
       <c r="F41" s="42"/>
@@ -2933,13 +3027,13 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="135"/>
-      <c r="B42" s="137" t="s">
+      <c r="A42" s="136"/>
+      <c r="B42" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="138"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42">
         <f t="shared" si="0"/>
@@ -2956,11 +3050,11 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="136"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
+      <c r="A43" s="137"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42">
         <f t="shared" si="0"/>
@@ -2987,10 +3081,10 @@
       <c r="A44" s="73">
         <v>7</v>
       </c>
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="144"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="84"/>
       <c r="E44" s="84"/>
       <c r="F44" s="42"/>
@@ -3010,10 +3104,10 @@
     </row>
     <row r="45" spans="1:17" s="31" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
-      <c r="B45" s="158" t="s">
+      <c r="B45" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="159"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="87">
         <v>1</v>
       </c>
@@ -3041,10 +3135,10 @@
     </row>
     <row r="46" spans="1:17" ht="26.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="118"/>
+      <c r="C46" s="145"/>
       <c r="D46" s="92"/>
       <c r="E46" s="93"/>
       <c r="F46" s="42"/>
@@ -3071,10 +3165,10 @@
     </row>
     <row r="47" spans="1:17" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
-      <c r="B47" s="115" t="s">
+      <c r="B47" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="116"/>
+      <c r="C47" s="141"/>
       <c r="D47" s="97"/>
       <c r="E47" s="88"/>
       <c r="F47" s="42"/>
@@ -3094,10 +3188,10 @@
     </row>
     <row r="48" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
-      <c r="B48" s="119" t="s">
+      <c r="B48" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="120"/>
+      <c r="C48" s="159"/>
       <c r="D48" s="99"/>
       <c r="E48" s="100"/>
       <c r="F48" s="42"/>
@@ -3119,10 +3213,10 @@
       <c r="A49" s="30">
         <v>8</v>
       </c>
-      <c r="B49" s="121" t="s">
+      <c r="B49" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="122"/>
+      <c r="C49" s="161"/>
       <c r="D49" s="96"/>
       <c r="E49" s="96"/>
       <c r="F49" s="42"/>
@@ -3142,10 +3236,10 @@
     </row>
     <row r="50" spans="1:10" s="31" customFormat="1" ht="57.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="114"/>
+      <c r="C50" s="157"/>
       <c r="D50" s="97">
         <v>1</v>
       </c>
@@ -3173,8 +3267,8 @@
     </row>
     <row r="51" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="153"/>
       <c r="D51" s="101"/>
       <c r="E51" s="86"/>
       <c r="F51" s="42"/>
@@ -3196,10 +3290,10 @@
       <c r="A52" s="33">
         <v>9</v>
       </c>
-      <c r="B52" s="111" t="s">
+      <c r="B52" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="112"/>
+      <c r="C52" s="155"/>
       <c r="D52" s="96"/>
       <c r="E52" s="96"/>
       <c r="F52" s="42"/>
@@ -3219,10 +3313,10 @@
     </row>
     <row r="53" spans="1:10" s="14" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
-      <c r="B53" s="113" t="s">
+      <c r="B53" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="114"/>
+      <c r="C53" s="157"/>
       <c r="D53" s="97">
         <v>1</v>
       </c>
@@ -3250,10 +3344,10 @@
     </row>
     <row r="54" spans="1:10" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
-      <c r="B54" s="115" t="s">
+      <c r="B54" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="116"/>
+      <c r="C54" s="141"/>
       <c r="D54" s="97"/>
       <c r="E54" s="88"/>
       <c r="F54" s="42"/>
@@ -3273,24 +3367,34 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:C43"/>
     <mergeCell ref="D42:D43"/>
@@ -3301,34 +3405,24 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.24" top="0.75" bottom="0.37" header="0.53" footer="0.17"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="14" orientation="portrait" r:id="rId1"/>
@@ -3350,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3399,37 +3493,37 @@
     </row>
     <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" s="102" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="151" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="153" t="s">
+      <c r="E4" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153" t="s">
+      <c r="G4" s="131"/>
+      <c r="H4" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="149" t="s">
+      <c r="I4" s="131"/>
+      <c r="J4" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="102" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="150"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="152"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
@@ -3442,14 +3536,14 @@
       <c r="I5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="149"/>
+      <c r="J5" s="127"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67"/>
-      <c r="B6" s="168" t="s">
+      <c r="B6" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="169"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="103"/>
       <c r="E6" s="104"/>
       <c r="F6" s="11"/>
@@ -3460,38 +3554,38 @@
     </row>
     <row r="7" spans="1:10" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="164"/>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="138"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="166"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:10" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="165"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="140"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="167"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
     </row>
     <row r="9" spans="1:10" s="31" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="163"/>
+      <c r="C9" s="169"/>
       <c r="D9" s="97"/>
       <c r="E9" s="88"/>
       <c r="F9" s="27"/>
@@ -3535,10 +3629,10 @@
     </row>
     <row r="11" spans="1:10" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="116"/>
+      <c r="C11" s="141"/>
       <c r="D11" s="97"/>
       <c r="E11" s="88"/>
       <c r="F11" s="42"/>
@@ -3549,38 +3643,38 @@
     </row>
     <row r="12" spans="1:10" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="164"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="166"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
     </row>
     <row r="13" spans="1:10" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="165"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
       <c r="D13" s="167"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
     </row>
     <row r="14" spans="1:10" s="31" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68">
         <v>2</v>
       </c>
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="163"/>
+      <c r="C14" s="169"/>
       <c r="D14" s="97"/>
       <c r="E14" s="88"/>
       <c r="F14" s="27"/>
@@ -3657,10 +3751,10 @@
     </row>
     <row r="17" spans="1:10" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="116"/>
+      <c r="C17" s="141"/>
       <c r="D17" s="97"/>
       <c r="E17" s="88"/>
       <c r="F17" s="42"/>
@@ -3671,38 +3765,38 @@
     </row>
     <row r="18" spans="1:10" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="164"/>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="166"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
     </row>
     <row r="19" spans="1:10" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="165"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="167"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="1:10" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="66">
         <v>3</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="120"/>
+      <c r="C20" s="159"/>
       <c r="D20" s="106"/>
       <c r="E20" s="83"/>
       <c r="F20" s="64"/>
@@ -3713,10 +3807,10 @@
     </row>
     <row r="21" spans="1:10" s="31" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="163"/>
+      <c r="C21" s="169"/>
       <c r="D21" s="97">
         <v>1</v>
       </c>
@@ -3744,8 +3838,8 @@
     </row>
     <row r="22" spans="1:10" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="105"/>
       <c r="E22" s="82"/>
       <c r="F22" s="8"/>
@@ -3758,10 +3852,10 @@
       <c r="A23" s="66">
         <v>4</v>
       </c>
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="140"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="106"/>
       <c r="E23" s="83"/>
       <c r="F23" s="64"/>
@@ -3772,10 +3866,10 @@
     </row>
     <row r="24" spans="1:10" s="31" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="163"/>
+      <c r="C24" s="169"/>
       <c r="D24" s="97">
         <v>1</v>
       </c>
@@ -3803,8 +3897,8 @@
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
       <c r="D25" s="101"/>
       <c r="E25" s="86"/>
       <c r="F25" s="43"/>
@@ -3817,10 +3911,10 @@
       <c r="A26" s="33">
         <v>5</v>
       </c>
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="140"/>
+      <c r="C26" s="124"/>
       <c r="D26" s="96"/>
       <c r="E26" s="96"/>
       <c r="F26" s="44"/>
@@ -3831,10 +3925,10 @@
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="163"/>
+      <c r="C27" s="169"/>
       <c r="D27" s="97">
         <v>1</v>
       </c>
@@ -3862,10 +3956,10 @@
     </row>
     <row r="28" spans="1:10" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="116"/>
+      <c r="C28" s="141"/>
       <c r="D28" s="97"/>
       <c r="E28" s="88"/>
       <c r="F28" s="42"/>
@@ -3885,24 +3979,24 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
@@ -3915,24 +4009,24 @@
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.24" top="0.75" bottom="0.37" header="0.53" footer="0.17"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="14" orientation="portrait" r:id="rId1"/>
@@ -3940,4 +4034,766 @@
     <oddFooter>&amp;L&amp;"Century Gothic,Regular"&amp;9ElekEn Associates&amp;C&amp;"Century Gothic,Regular"&amp;9Page &amp;P of &amp;N&amp;R&amp;"Century Gothic,Regular"&amp;9July 24, 2024</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA66C8D-C2F3-4984-9309-2B6C2CBBA92A}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="7" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="3" customWidth="1"/>
+    <col min="6" max="10" width="11.5703125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="133"/>
+      <c r="D4" s="129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="130" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="131"/>
+      <c r="J4" s="127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="128"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="127"/>
+    </row>
+    <row r="6" spans="1:13" s="102" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67"/>
+      <c r="B6" s="162" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="163"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" s="102" customFormat="1" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="176" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="177"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="164"/>
+      <c r="B8" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="122"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+    </row>
+    <row r="9" spans="1:13" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="165"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+    </row>
+    <row r="10" spans="1:13" s="179" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="178">
+        <v>1</v>
+      </c>
+      <c r="B10" s="176" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="177"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="180" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="181" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="172">
+        <v>40</v>
+      </c>
+      <c r="E11" s="173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+    </row>
+    <row r="12" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="180" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="181" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="172">
+        <v>40</v>
+      </c>
+      <c r="E12" s="173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" s="179" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="141"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41">
+        <f>SUM(G11:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="41">
+        <f>SUM(I11:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:13" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="164"/>
+      <c r="B14" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="122"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+    </row>
+    <row r="15" spans="1:13" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="165"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+    </row>
+    <row r="16" spans="1:13" s="179" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="183">
+        <v>1</v>
+      </c>
+      <c r="B16" s="176" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="177"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="42">
+        <v>7000</v>
+      </c>
+      <c r="G17" s="42">
+        <f>F17*D17</f>
+        <v>7000</v>
+      </c>
+      <c r="H17" s="42">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="42">
+        <f>H17*D17</f>
+        <v>1000</v>
+      </c>
+      <c r="J17" s="42">
+        <f>I17+G17</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="179" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="140" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="164"/>
+      <c r="B19" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="122"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+    </row>
+    <row r="20" spans="1:10" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="165"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+    </row>
+    <row r="21" spans="1:10" s="179" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="178">
+        <v>2</v>
+      </c>
+      <c r="B21" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="177"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" s="179" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="27">
+        <v>4</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="42">
+        <v>27000</v>
+      </c>
+      <c r="G22" s="42">
+        <f t="shared" ref="G22:G23" si="0">F22*D22</f>
+        <v>108000</v>
+      </c>
+      <c r="H22" s="42">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="42">
+        <f t="shared" ref="I22:I23" si="1">H22*D22</f>
+        <v>4000</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" ref="J22:J23" si="2">I22+G22</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="179" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="27">
+        <v>4</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="42">
+        <v>17000</v>
+      </c>
+      <c r="G23" s="42">
+        <f t="shared" si="0"/>
+        <v>68000</v>
+      </c>
+      <c r="H23" s="42">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="42">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="J23" s="42">
+        <f t="shared" si="2"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="179" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="140" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="141"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="1:10" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="164"/>
+      <c r="B25" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="122"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+    </row>
+    <row r="26" spans="1:10" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="165"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+    </row>
+    <row r="27" spans="1:10" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66">
+        <v>3</v>
+      </c>
+      <c r="B27" s="158" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="159"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+    </row>
+    <row r="28" spans="1:10" s="179" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="185"/>
+      <c r="D28" s="27">
+        <v>1</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" spans="1:10" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66">
+        <v>4</v>
+      </c>
+      <c r="B29" s="158" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="159"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+    </row>
+    <row r="30" spans="1:10" s="179" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="176" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="177"/>
+      <c r="D30" s="27">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="42">
+        <v>20000</v>
+      </c>
+      <c r="G30" s="42">
+        <f>F30*D30</f>
+        <v>20000</v>
+      </c>
+      <c r="H30" s="42">
+        <v>10000</v>
+      </c>
+      <c r="I30" s="42">
+        <f>H30*D30</f>
+        <v>10000</v>
+      </c>
+      <c r="J30" s="42">
+        <f>I30+G30</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" s="102" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66">
+        <v>5</v>
+      </c>
+      <c r="B32" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="124"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+    </row>
+    <row r="33" spans="1:10" s="179" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="177"/>
+      <c r="D33" s="27">
+        <v>1</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="42">
+        <v>10000</v>
+      </c>
+      <c r="G33" s="42">
+        <f>F33*D33</f>
+        <v>10000</v>
+      </c>
+      <c r="H33" s="42">
+        <v>10000</v>
+      </c>
+      <c r="I33" s="42">
+        <f>H33*D33</f>
+        <v>10000</v>
+      </c>
+      <c r="J33" s="42">
+        <f>I33+G33</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" s="179" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="174">
+        <v>6</v>
+      </c>
+      <c r="B35" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="124"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="186"/>
+      <c r="B36" s="176" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="177"/>
+      <c r="D36" s="27">
+        <v>1</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="42">
+        <v>0</v>
+      </c>
+      <c r="G36" s="42">
+        <f>F36*D36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="42">
+        <v>25000</v>
+      </c>
+      <c r="I36" s="42">
+        <f>H36*D36</f>
+        <v>25000</v>
+      </c>
+      <c r="J36" s="42">
+        <f>I36+G36</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="179" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="140" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="141"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="41">
+        <f>SUM(G7:G36)</f>
+        <v>213000</v>
+      </c>
+      <c r="H37" s="42"/>
+      <c r="I37" s="41">
+        <f>SUM(I7:I36)</f>
+        <v>54000</v>
+      </c>
+      <c r="J37" s="41">
+        <f>SUM(J7:J36)</f>
+        <v>267000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.24" top="0.75" bottom="0.37" header="0.53" footer="0.17"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="14" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Century Gothic,Regular"&amp;9ElekEn Associates&amp;C&amp;"Century Gothic,Regular"&amp;9Page &amp;P of &amp;N&amp;R&amp;"Century Gothic,Regular"&amp;9August 2nd, 2024</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>